--- a/documents/notes/omad data.xlsx
+++ b/documents/notes/omad data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yunseokjeon/git/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yunseokjeon/git/blog_images/documents/notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0465FEF6-D811-3E4D-B782-954E2E4B3E28}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FF3BDD0-7A62-9645-A774-712533AACD4A}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12000" yWindow="2020" windowWidth="28100" windowHeight="17380" xr2:uid="{6A074465-B6BB-6B4A-BE23-675807769AD8}"/>
+    <workbookView xWindow="10300" yWindow="2020" windowWidth="28100" windowHeight="17380" xr2:uid="{6A074465-B6BB-6B4A-BE23-675807769AD8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -466,7 +466,9 @@
       <c r="A7" s="2">
         <v>43241</v>
       </c>
-      <c r="B7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">

--- a/documents/notes/omad data.xlsx
+++ b/documents/notes/omad data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yunseokjeon/git/blog_images/documents/notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FF3BDD0-7A62-9645-A774-712533AACD4A}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF774907-BE8B-2945-9867-835206AAD380}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10300" yWindow="2020" windowWidth="28100" windowHeight="17380" xr2:uid="{6A074465-B6BB-6B4A-BE23-675807769AD8}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -413,7 +413,7 @@
   <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -474,13 +474,17 @@
       <c r="A8" s="2">
         <v>43242</v>
       </c>
-      <c r="B8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>43243</v>
       </c>
-      <c r="B9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">

--- a/documents/notes/omad data.xlsx
+++ b/documents/notes/omad data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yunseokjeon/git/blog_images/documents/notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF774907-BE8B-2945-9867-835206AAD380}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{390B5332-CD4E-304A-9556-B4D1B3BD3A41}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10300" yWindow="2020" windowWidth="28100" windowHeight="17380" xr2:uid="{6A074465-B6BB-6B4A-BE23-675807769AD8}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="4">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -413,7 +413,7 @@
   <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -490,7 +490,9 @@
       <c r="A10" s="2">
         <v>43244</v>
       </c>
-      <c r="B10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">

--- a/documents/notes/omad data.xlsx
+++ b/documents/notes/omad data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10513"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10523"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yunseokjeon/git/blog_images/documents/notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{390B5332-CD4E-304A-9556-B4D1B3BD3A41}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{539C8A5C-507F-C34B-82CC-79EB306B6333}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10300" yWindow="2020" windowWidth="28100" windowHeight="17380" xr2:uid="{6A074465-B6BB-6B4A-BE23-675807769AD8}"/>
+    <workbookView xWindow="5500" yWindow="2020" windowWidth="28100" windowHeight="17380" xr2:uid="{6A074465-B6BB-6B4A-BE23-675807769AD8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="4">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -413,7 +413,7 @@
   <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -498,7 +498,9 @@
       <c r="A11" s="2">
         <v>43245</v>
       </c>
-      <c r="B11" s="1"/>
+      <c r="B11" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">

--- a/documents/notes/omad data.xlsx
+++ b/documents/notes/omad data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yunseokjeon/git/blog_images/documents/notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{539C8A5C-507F-C34B-82CC-79EB306B6333}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A457EE05-A1C1-F64B-A4FA-D19AAE1D3698}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5500" yWindow="2020" windowWidth="28100" windowHeight="17380" xr2:uid="{6A074465-B6BB-6B4A-BE23-675807769AD8}"/>
   </bookViews>
@@ -413,7 +413,7 @@
   <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -499,7 +499,7 @@
         <v>43245</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:2">

--- a/documents/notes/omad data.xlsx
+++ b/documents/notes/omad data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yunseokjeon/git/blog_images/documents/notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A457EE05-A1C1-F64B-A4FA-D19AAE1D3698}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA434D9D-1DB7-4C48-8EE9-04BBE32A74BF}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5500" yWindow="2020" windowWidth="28100" windowHeight="17380" xr2:uid="{6A074465-B6BB-6B4A-BE23-675807769AD8}"/>
   </bookViews>
@@ -412,8 +412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2BF8661-F2CB-3A42-A44F-35ADB25E5151}">
   <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -519,31 +519,45 @@
       <c r="B14" s="1"/>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="1"/>
+      <c r="A15" s="2">
+        <v>43248</v>
+      </c>
       <c r="B15" s="1"/>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="1"/>
+      <c r="A16" s="2">
+        <v>43249</v>
+      </c>
       <c r="B16" s="1"/>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="1"/>
+      <c r="A17" s="2">
+        <v>43250</v>
+      </c>
       <c r="B17" s="1"/>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="1"/>
+      <c r="A18" s="2">
+        <v>43251</v>
+      </c>
       <c r="B18" s="1"/>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="1"/>
+      <c r="A19" s="2">
+        <v>43252</v>
+      </c>
       <c r="B19" s="1"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="1"/>
+      <c r="A20" s="2">
+        <v>43253</v>
+      </c>
       <c r="B20" s="1"/>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="1"/>
+      <c r="A21" s="2">
+        <v>43254</v>
+      </c>
       <c r="B21" s="1"/>
     </row>
     <row r="22" spans="1:2">

--- a/documents/notes/omad data.xlsx
+++ b/documents/notes/omad data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yunseokjeon/git/blog_images/documents/notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA434D9D-1DB7-4C48-8EE9-04BBE32A74BF}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C94C8F4B-000D-7F42-981A-F1130799515C}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5500" yWindow="2020" windowWidth="28100" windowHeight="17380" xr2:uid="{6A074465-B6BB-6B4A-BE23-675807769AD8}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="4">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -413,7 +413,7 @@
   <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -506,7 +506,9 @@
       <c r="A12" s="2">
         <v>43246</v>
       </c>
-      <c r="B12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
